--- a/venta_departamento_atacama.xlsx
+++ b/venta_departamento_atacama.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="230">
   <si>
     <t>id</t>
   </si>
@@ -25,51 +25,138 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>minMet</t>
+  </si>
+  <si>
+    <t>maxMet</t>
+  </si>
+  <si>
+    <t>promM</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
     <t>link</t>
   </si>
   <si>
+    <t>Eco Vista</t>
+  </si>
+  <si>
+    <t>$ 68.625.156</t>
+  </si>
+  <si>
+    <t>-70.32668</t>
+  </si>
+  <si>
+    <t>summary_large_image</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/4993-eco-vista-nva?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
     <t>Edificio Parque Alameda</t>
   </si>
   <si>
     <t>$ 52.546.958</t>
   </si>
   <si>
+    <t>-27.36176</t>
+  </si>
+  <si>
+    <t>-70.33860</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/4225-edificio-parque-alameda-nva?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
-    <t>Eco Vista</t>
-  </si>
-  <si>
-    <t>$ 68.625.156</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/4993-eco-vista-nva?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
     <t>Edificio Centro Plaza</t>
   </si>
   <si>
     <t>$ 56.672.985</t>
   </si>
   <si>
+    <t>-27.36709</t>
+  </si>
+  <si>
+    <t>-70.33040</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/4318-edificio-centro-plaza-nva?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
+    <t>Condominio Nuevo Sol</t>
+  </si>
+  <si>
+    <t>$ 31.943.439</t>
+  </si>
+  <si>
+    <t>-27.38708</t>
+  </si>
+  <si>
+    <t>-70.31000</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/7183-condominio-nuevo-sol-nva?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
     <t>Espacio Valle del Inca</t>
   </si>
   <si>
     <t>$ 34.605.393</t>
   </si>
   <si>
+    <t>-27.40682</t>
+  </si>
+  <si>
+    <t>-70.29367</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/5564-espacio-valle-del-inca-nva?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
+    <t>Edificio Innova</t>
+  </si>
+  <si>
+    <t>$ 58.696.070</t>
+  </si>
+  <si>
+    <t>-27.37709</t>
+  </si>
+  <si>
+    <t>-70.31589</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/4463-edificio-innova-nva?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Cumbres de La Chimba</t>
+  </si>
+  <si>
+    <t>$ 54.090.891</t>
+  </si>
+  <si>
+    <t>-70.34468</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/5006-cumbres-de-la-chimba-nva?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
     <t>Edificio Matta</t>
   </si>
   <si>
     <t>$ 51.242.601</t>
   </si>
   <si>
+    <t>-27.38579</t>
+  </si>
+  <si>
+    <t>-70.31193</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/5366-edificio-matta-nva?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -79,42 +166,27 @@
     <t>$ 29.281.486</t>
   </si>
   <si>
+    <t>-27.39025</t>
+  </si>
+  <si>
+    <t>-70.30907</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/5721-dona-alejandrina-ii-nva?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
-    <t>Condominio Nuevo Sol</t>
-  </si>
-  <si>
-    <t>$ 31.943.439</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/7183-condominio-nuevo-sol-nva?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Cumbres de La Chimba</t>
-  </si>
-  <si>
-    <t>$ 54.090.891</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/5006-cumbres-de-la-chimba-nva?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Edificio Innova</t>
-  </si>
-  <si>
-    <t>$ 58.696.070</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/4463-edificio-innova-nva?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
     <t>copayapu  3268, Copiapó</t>
   </si>
   <si>
     <t>$ 14.001.805</t>
   </si>
   <si>
+    <t>-27.39033</t>
+  </si>
+  <si>
+    <t>-70.31161</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3566195-copayapu-3268-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
   </si>
   <si>
@@ -124,6 +196,12 @@
     <t>$ 14.002.707</t>
   </si>
   <si>
+    <t>-27.38847</t>
+  </si>
+  <si>
+    <t>-70.30792</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3566129-leonidas-perez-3450-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -133,6 +211,12 @@
     <t>$ 26.087.142</t>
   </si>
   <si>
+    <t>-27.39056</t>
+  </si>
+  <si>
+    <t>-70.31357</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3351715-francisco-de-aguirre-95-departamento-504-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -145,6 +229,12 @@
     <t>pedro de valdivia 310, Copiapó</t>
   </si>
   <si>
+    <t>-27.39032</t>
+  </si>
+  <si>
+    <t>-70.30899</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3514809-pedro-de-valdivia-310-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -154,6 +244,12 @@
     <t>Cond. Guillermo Wheelwright, Copiapó</t>
   </si>
   <si>
+    <t>-27.38986</t>
+  </si>
+  <si>
+    <t>-70.31210</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3285507-cond-guillermo-wheelwright-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -163,6 +259,12 @@
     <t>$ 29.946.974</t>
   </si>
   <si>
+    <t>-27.31985</t>
+  </si>
+  <si>
+    <t>-69.82819</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3546453-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -172,9 +274,21 @@
     <t>$ 30.000.631</t>
   </si>
   <si>
+    <t>-27.38845</t>
+  </si>
+  <si>
+    <t>-70.30791</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3108078-conjunto-residencial-dona-alejandrina-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
+    <t>-27.38924</t>
+  </si>
+  <si>
+    <t>-70.30669</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/2854929-conjunto-residencial-dona-alejandrina-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -184,6 +298,12 @@
     <t>$ 30.399.506</t>
   </si>
   <si>
+    <t>-27.38498</t>
+  </si>
+  <si>
+    <t>-70.31419</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3545443-copayapu-copiapo-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -193,12 +313,24 @@
     <t>$ 32.364.284</t>
   </si>
   <si>
+    <t>-27.35989</t>
+  </si>
+  <si>
+    <t>-70.33247</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/2895210-callejon-diego-de-almagro-copayapu-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Copayapú  / Callejon Diego de Almagro, Copiapó</t>
   </si>
   <si>
+    <t>-27.38814</t>
+  </si>
+  <si>
+    <t>-70.31514</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/2901635-copayapu-callejon-diego-de-almagro-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -208,6 +340,12 @@
     <t>$ 32.475.830</t>
   </si>
   <si>
+    <t>-27.39054</t>
+  </si>
+  <si>
+    <t>-70.31358</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/2938050-francisco-de-aguirre-75-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -217,6 +355,12 @@
     <t>$ 33.375.669</t>
   </si>
   <si>
+    <t>-27.38878</t>
+  </si>
+  <si>
+    <t>-70.31314</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/2776186-cond-guillermo-wheelright-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -226,6 +370,12 @@
     <t>$ 35.398.436</t>
   </si>
   <si>
+    <t>-27.38401</t>
+  </si>
+  <si>
+    <t>-70.30958</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/2836504-callejon-digo-de-almagro-condominio-diego-de-almagro-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -241,6 +391,12 @@
     <t>$ 37.932.834</t>
   </si>
   <si>
+    <t>-27.36658</t>
+  </si>
+  <si>
+    <t>-70.33216</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/2145839-pedro-de-valdivia-copayapu-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -250,6 +406,12 @@
     <t>$ 40.183.649</t>
   </si>
   <si>
+    <t>-28.58289</t>
+  </si>
+  <si>
+    <t>-70.74895</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/vallenar-atacama/3319584-amancay-655-departamento-204-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -259,6 +421,12 @@
     <t>$ 43.489.507</t>
   </si>
   <si>
+    <t>-27.37816</t>
+  </si>
+  <si>
+    <t>-70.33299</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/2756285-tres-puntas-a11-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -277,6 +445,12 @@
     <t>$ 47.648.964</t>
   </si>
   <si>
+    <t>-27.37858</t>
+  </si>
+  <si>
+    <t>-70.31268</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/2505448-villa-magisterio-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -295,6 +469,12 @@
     <t>$ 52.972.870</t>
   </si>
   <si>
+    <t>-27.36802</t>
+  </si>
+  <si>
+    <t>-70.32909</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/2938132-copiapo-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -304,6 +484,12 @@
     <t>$ 54.006.962</t>
   </si>
   <si>
+    <t>-27.36708</t>
+  </si>
+  <si>
+    <t>-70.32630</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3566068-jose-m-infante-1020-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -340,6 +526,12 @@
     <t>$ 74.879.348</t>
   </si>
   <si>
+    <t>-27.36269</t>
+  </si>
+  <si>
+    <t>-70.33602</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3449819-rodriguez-los-carrera-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -349,6 +541,12 @@
     <t>$ 75.865.668</t>
   </si>
   <si>
+    <t>-27.36702</t>
+  </si>
+  <si>
+    <t>-70.32625</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3290905-edificio-los-gobernantes-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -358,6 +556,12 @@
     <t>$ 79.326.208</t>
   </si>
   <si>
+    <t>-27.37038</t>
+  </si>
+  <si>
+    <t>-70.33263</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3157680-edificio-torre-del-sol-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -367,6 +571,12 @@
     <t>$ 80.923.380</t>
   </si>
   <si>
+    <t>-27.36521</t>
+  </si>
+  <si>
+    <t>-70.33716</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3107270-sector-centro-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -427,12 +637,18 @@
     <t>$ 34.993.971</t>
   </si>
   <si>
+    <t>-70.29336</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3109037-condominio-luis-bogdanic-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>$ 36.734.955</t>
   </si>
   <si>
+    <t>-70.29323</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3191627-condominio-luis-bogdanic-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -442,6 +658,12 @@
     <t>$ 28.482.900</t>
   </si>
   <si>
+    <t>-27.36673</t>
+  </si>
+  <si>
+    <t>-70.32439</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3579329-portales-al-llegar-a-henriquez-copiapo-departamento-504-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -451,6 +673,12 @@
     <t>$ 55.901.019</t>
   </si>
   <si>
+    <t>-27.38883</t>
+  </si>
+  <si>
+    <t>-70.30180</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/3557587-el-inca-684-departamento-c-312-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -458,6 +686,12 @@
   </si>
   <si>
     <t>$ 73.203.715</t>
+  </si>
+  <si>
+    <t>-27.36679</t>
+  </si>
+  <si>
+    <t>-70.32658</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/copiapo-atacama/2363119-jose-m-infante-990-uda?tp=2&amp;op=1&amp;iug=444&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
@@ -810,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,7 +1054,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -833,804 +1067,1614 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
+        <v>4993</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>37.27</v>
+      </c>
+      <c r="E2">
+        <v>66.52</v>
+      </c>
+      <c r="F2">
+        <v>51.895</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>4225</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>4993</v>
-      </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>39.96</v>
+      </c>
+      <c r="E3">
+        <v>76.59</v>
+      </c>
+      <c r="F3">
+        <v>58.27500000000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>4318</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>40.91</v>
+      </c>
+      <c r="E4">
+        <v>70.01000000000001</v>
+      </c>
+      <c r="F4">
+        <v>55.46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>7183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>47.9</v>
+      </c>
+      <c r="E5">
+        <v>63.22</v>
+      </c>
+      <c r="F5">
+        <v>55.56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5564</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>32.22</v>
+      </c>
+      <c r="E6">
+        <v>47.12</v>
+      </c>
+      <c r="F6">
+        <v>39.67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>4463</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>45.48</v>
+      </c>
+      <c r="E7">
+        <v>74.48999999999999</v>
+      </c>
+      <c r="F7">
+        <v>59.985</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>5006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>51.21</v>
+      </c>
+      <c r="E8">
+        <v>60.94</v>
+      </c>
+      <c r="F8">
+        <v>56.075</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>5564</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>5366</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>61</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>5721</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7183</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>5006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>4463</v>
-      </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>44.81</v>
+      </c>
+      <c r="E10">
+        <v>44.81</v>
+      </c>
+      <c r="F10">
+        <v>44.81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>3566195</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>3566129</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>3351715</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>3566001</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="D14">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>3514809</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>3538846</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>41</v>
+      </c>
+      <c r="F16">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>3285507</v>
       </c>
       <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>3546453</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>42</v>
+      </c>
+      <c r="F18">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>3108078</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>47</v>
+      </c>
+      <c r="F19">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>2854929</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>3545443</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="D21">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>45</v>
+      </c>
+      <c r="F21">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>2895210</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="D22">
+        <v>56</v>
+      </c>
+      <c r="E22">
+        <v>56</v>
+      </c>
+      <c r="F22">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>2901635</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="D23">
+        <v>59</v>
+      </c>
+      <c r="E23">
+        <v>118</v>
+      </c>
+      <c r="F23">
+        <v>88.5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>2938050</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>2776186</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>112</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>2836504</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>117</v>
+      </c>
+      <c r="D26">
+        <v>56</v>
+      </c>
+      <c r="E26">
+        <v>56</v>
+      </c>
+      <c r="F26">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>2854905</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="H27" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="I27" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>2145839</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>124</v>
+      </c>
+      <c r="D28">
+        <v>47</v>
+      </c>
+      <c r="E28">
+        <v>47</v>
+      </c>
+      <c r="F28">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>3319584</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>129</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>54</v>
+      </c>
+      <c r="F29">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>2756285</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>134</v>
+      </c>
+      <c r="D30">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <v>52</v>
+      </c>
+      <c r="F30">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>1848914</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>139</v>
+      </c>
+      <c r="D31">
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <v>58</v>
+      </c>
+      <c r="F31">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>2505448</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="D32">
+        <v>45</v>
+      </c>
+      <c r="E32">
+        <v>46</v>
+      </c>
+      <c r="F32">
+        <v>45.5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>2864359</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>147</v>
+      </c>
+      <c r="D33">
+        <v>58</v>
+      </c>
+      <c r="E33">
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>2938132</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>150</v>
+      </c>
+      <c r="D34">
+        <v>45</v>
+      </c>
+      <c r="E34">
+        <v>45</v>
+      </c>
+      <c r="F34">
+        <v>45</v>
+      </c>
+      <c r="G34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>3566068</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>155</v>
+      </c>
+      <c r="D35">
+        <v>65</v>
+      </c>
+      <c r="E35">
+        <v>65</v>
+      </c>
+      <c r="F35">
+        <v>65</v>
+      </c>
+      <c r="G35" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>3327284</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36">
+        <v>56.88</v>
+      </c>
+      <c r="E36">
+        <v>58.68</v>
+      </c>
+      <c r="F36">
+        <v>57.78</v>
+      </c>
+      <c r="G36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="H36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>2373593</v>
       </c>
       <c r="B37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37">
+        <v>67.3</v>
+      </c>
+      <c r="E37">
+        <v>67.3</v>
+      </c>
+      <c r="F37">
+        <v>67.3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" t="s">
         <v>100</v>
       </c>
-      <c r="C37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="I37" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>2553741</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>166</v>
+      </c>
+      <c r="D38">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <v>74</v>
+      </c>
+      <c r="F38">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>3449819</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>169</v>
+      </c>
+      <c r="D39">
+        <v>76</v>
+      </c>
+      <c r="E39">
+        <v>78</v>
+      </c>
+      <c r="F39">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>3290905</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>174</v>
+      </c>
+      <c r="D40">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>70</v>
+      </c>
+      <c r="F40">
+        <v>70</v>
+      </c>
+      <c r="G40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" t="s">
+        <v>176</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>3157680</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>179</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41" t="s">
+        <v>181</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>3107270</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" t="s">
+        <v>186</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>2678030</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>189</v>
+      </c>
+      <c r="D43">
+        <v>76</v>
+      </c>
+      <c r="E43">
+        <v>76</v>
+      </c>
+      <c r="F43">
+        <v>76</v>
+      </c>
+      <c r="G43" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>2474767</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>192</v>
+      </c>
+      <c r="D44">
+        <v>76</v>
+      </c>
+      <c r="E44">
+        <v>80</v>
+      </c>
+      <c r="F44">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s">
+        <v>170</v>
+      </c>
+      <c r="H44" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>2563326</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>195</v>
+      </c>
+      <c r="D45">
+        <v>75</v>
+      </c>
+      <c r="E45">
+        <v>82</v>
+      </c>
+      <c r="F45">
+        <v>78.5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>3516400</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>198</v>
+      </c>
+      <c r="D46">
+        <v>88</v>
+      </c>
+      <c r="E46">
+        <v>104</v>
+      </c>
+      <c r="F46">
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>3261866</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>201</v>
+      </c>
+      <c r="D47">
+        <v>73</v>
+      </c>
+      <c r="E47">
+        <v>73</v>
+      </c>
+      <c r="F47">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s">
+        <v>99</v>
+      </c>
+      <c r="H47" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>3008984</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>45</v>
+      </c>
+      <c r="E48">
+        <v>48</v>
+      </c>
+      <c r="F48">
+        <v>46.5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>3109037</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>206</v>
+      </c>
+      <c r="D49">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s">
+        <v>207</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>3191627</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>209</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50" t="s">
+        <v>210</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>3579329</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>213</v>
+      </c>
+      <c r="D51">
+        <v>42</v>
+      </c>
+      <c r="E51">
+        <v>42</v>
+      </c>
+      <c r="F51">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" t="s">
+        <v>215</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>3557587</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="D52">
+        <v>56</v>
+      </c>
+      <c r="E52">
+        <v>56</v>
+      </c>
+      <c r="F52">
+        <v>56</v>
+      </c>
+      <c r="G52" t="s">
+        <v>219</v>
+      </c>
+      <c r="H52" t="s">
+        <v>220</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>2363119</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>223</v>
+      </c>
+      <c r="D53">
+        <v>70</v>
+      </c>
+      <c r="E53">
+        <v>70</v>
+      </c>
+      <c r="F53">
+        <v>70</v>
+      </c>
+      <c r="G53" t="s">
+        <v>224</v>
+      </c>
+      <c r="H53" t="s">
+        <v>225</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>3552599</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>151</v>
+        <v>228</v>
+      </c>
+      <c r="D54">
+        <v>57</v>
+      </c>
+      <c r="E54">
+        <v>60</v>
+      </c>
+      <c r="F54">
+        <v>58.5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>126</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="I16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I19" r:id="rId18"/>
+    <hyperlink ref="I20" r:id="rId19"/>
+    <hyperlink ref="I21" r:id="rId20"/>
+    <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
+    <hyperlink ref="I24" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I26" r:id="rId25"/>
+    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="I28" r:id="rId27"/>
+    <hyperlink ref="I29" r:id="rId28"/>
+    <hyperlink ref="I30" r:id="rId29"/>
+    <hyperlink ref="I31" r:id="rId30"/>
+    <hyperlink ref="I32" r:id="rId31"/>
+    <hyperlink ref="I33" r:id="rId32"/>
+    <hyperlink ref="I34" r:id="rId33"/>
+    <hyperlink ref="I35" r:id="rId34"/>
+    <hyperlink ref="I36" r:id="rId35"/>
+    <hyperlink ref="I37" r:id="rId36"/>
+    <hyperlink ref="I38" r:id="rId37"/>
+    <hyperlink ref="I39" r:id="rId38"/>
+    <hyperlink ref="I40" r:id="rId39"/>
+    <hyperlink ref="I41" r:id="rId40"/>
+    <hyperlink ref="I42" r:id="rId41"/>
+    <hyperlink ref="I43" r:id="rId42"/>
+    <hyperlink ref="I44" r:id="rId43"/>
+    <hyperlink ref="I45" r:id="rId44"/>
+    <hyperlink ref="I46" r:id="rId45"/>
+    <hyperlink ref="I47" r:id="rId46"/>
+    <hyperlink ref="I48" r:id="rId47"/>
+    <hyperlink ref="I49" r:id="rId48"/>
+    <hyperlink ref="I50" r:id="rId49"/>
+    <hyperlink ref="I51" r:id="rId50"/>
+    <hyperlink ref="I52" r:id="rId51"/>
+    <hyperlink ref="I53" r:id="rId52"/>
+    <hyperlink ref="I54" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
